--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/012_约会表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/012_约会表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD6D14F-C67F-4E1E-AAA9-F51207A364EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46896779-B7B7-4669-B794-267F09A173F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27240" yWindow="0" windowWidth="13500" windowHeight="20835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25290" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatingGift|角色礼物表" sheetId="4" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/012_约会表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/012_约会表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46896779-B7B7-4669-B794-267F09A173F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E88F911-6153-4870-A9D7-32A9DF2DEF89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25290" yWindow="1455" windowWidth="13500" windowHeight="16545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DatingGift|角色礼物表" sheetId="4" r:id="rId1"/>
@@ -934,8 +934,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1192,7 +1192,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1492,8 +1492,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1751,8 +1751,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:XFB75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3668,6 +3668,9 @@
       <c r="XFB75"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I75">
+    <sortCondition ref="A4"/>
+  </sortState>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
